--- a/src/main/resources/input_excel_file/booking/IntegrationFlows.xlsx
+++ b/src/main/resources/input_excel_file/booking/IntegrationFlows.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460"/>
+    <workbookView windowWidth="30240" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="flows" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>flow_id</t>
   </si>
@@ -50,13 +50,13 @@
     <t>FLOW_001</t>
   </si>
   <si>
-    <t>Verify successful booking and listing flow for 1 players</t>
+    <t>Verify create batch booking for Visitor without package (golf fee only)</t>
   </si>
   <si>
     <t>TC_LOGIN_0001</t>
   </si>
   <si>
-    <t>BB_001</t>
+    <t>BB_VST_001</t>
   </si>
   <si>
     <t>GBL_001</t>
@@ -68,10 +68,181 @@
     <t>FLOW_002</t>
   </si>
   <si>
-    <t>Verify successful booking and listing flow for 2 players</t>
-  </si>
-  <si>
-    <t>BB_002</t>
+    <t>Verify create batch booking for Visitor with package (package_add_on_fee applied)</t>
+  </si>
+  <si>
+    <t>BB_VST_002</t>
+  </si>
+  <si>
+    <t>FLOW_003</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + add caddie</t>
+  </si>
+  <si>
+    <t>BB_VST_003</t>
+  </si>
+  <si>
+    <t>FLOW_004</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor with package + add caddie</t>
+  </si>
+  <si>
+    <t>BB_VST_004</t>
+  </si>
+  <si>
+    <t>FLOW_005</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (fixed amount, apply to all fee types)</t>
+  </si>
+  <si>
+    <t>BB_VST_005</t>
+  </si>
+  <si>
+    <t>FLOW_006</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (fixed amount, apply to green fee only)</t>
+  </si>
+  <si>
+    <t>BB_VST_006</t>
+  </si>
+  <si>
+    <t>FLOW_007</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (fixed amount, apply to caddie fee only)</t>
+  </si>
+  <si>
+    <t>BB_VST_007</t>
+  </si>
+  <si>
+    <t>FLOW_008</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (percent, apply to all fee types)</t>
+  </si>
+  <si>
+    <t>BB_VST_008</t>
+  </si>
+  <si>
+    <t>FLOW_009</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (percent, apply to green fee only)</t>
+  </si>
+  <si>
+    <t>BB_VST_009</t>
+  </si>
+  <si>
+    <t>FLOW_010</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply normal voucher (percent, apply to caddie fee only)</t>
+  </si>
+  <si>
+    <t>BB_VST_010</t>
+  </si>
+  <si>
+    <t>FLOW_011</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for 4 fee types: golf/caddie/buggy/add-on package)</t>
+  </si>
+  <si>
+    <t>BB_VST_011</t>
+  </si>
+  <si>
+    <t>FLOW_012</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for green fee)</t>
+  </si>
+  <si>
+    <t>BB_VST_012</t>
+  </si>
+  <si>
+    <t>FLOW_013</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for caddie fee)</t>
+  </si>
+  <si>
+    <t>BB_VST_013</t>
+  </si>
+  <si>
+    <t>FLOW_014</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for half buggy)</t>
+  </si>
+  <si>
+    <t>BB_VST_014</t>
+  </si>
+  <si>
+    <t>FLOW_015</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply fixed discount voucher (fixed discount for add-on package)</t>
+  </si>
+  <si>
+    <t>BB_VST_015</t>
+  </si>
+  <si>
+    <t>FLOW_016</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (all 4 fee types: golf/caddie/buggy/add-on)</t>
+  </si>
+  <si>
+    <t>BB_VST_016</t>
+  </si>
+  <si>
+    <t>FLOW_017</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (green fee only)</t>
+  </si>
+  <si>
+    <t>BB_VST_017</t>
+  </si>
+  <si>
+    <t>FLOW_018</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (caddie fee only)</t>
+  </si>
+  <si>
+    <t>BB_VST_018</t>
+  </si>
+  <si>
+    <t>FLOW_019</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (half buggy)</t>
+  </si>
+  <si>
+    <t>BB_VST_019</t>
+  </si>
+  <si>
+    <t>FLOW_020</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for Visitor without package + apply prepaid voucher (add-on package)</t>
+  </si>
+  <si>
+    <t>BB_VST_020</t>
+  </si>
+  <si>
+    <t>FLOW_021</t>
+  </si>
+  <si>
+    <t>Verify create batch booking for 2 players successfully</t>
+  </si>
+  <si>
+    <t>BB_VST_021</t>
   </si>
 </sst>
 </file>
@@ -79,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -256,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCFCFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,16 +762,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,7 +780,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,16 +804,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -645,89 +822,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,11 +917,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1282,21 +1471,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.2857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.8571428571429" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.2857142857143" style="1"/>
+    <col min="1" max="1" width="17.2890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.859375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.2890625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.859375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.2890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:6">
@@ -1319,43 +1508,423 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:6">
+    <row r="2" ht="34" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:6">
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="51" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="34" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="34" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="68" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="68" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="68" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="68" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="68" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="68" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="51" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="51" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="68" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="68" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="51" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="51" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="51" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="51" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="34" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>11</v>
       </c>
     </row>
